--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -642,7 +642,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,10 +316,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -343,9 +339,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -388,12 +381,6 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -474,8 +461,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -512,6 +499,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -532,16 +522,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -578,9 +558,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -588,9 +565,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -609,8 +583,11 @@
     <t>Slice based on the request.url pattern</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -659,9 +636,6 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
-  </si>
-  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -671,8 +645,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -728,8 +702,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -783,9 +757,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -813,8 +784,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1483,15 +1454,15 @@
     <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.65625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1938,16 +1909,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1958,10 +1929,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1984,16 +1955,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2043,7 +2014,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2052,16 +2023,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -2072,10 +2043,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2098,16 +2069,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2133,32 +2104,32 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2166,16 +2137,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2186,10 +2157,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2212,16 +2183,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2271,7 +2242,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2280,30 +2251,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2326,16 +2297,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2346,78 +2317,78 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2440,16 +2411,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2499,7 +2470,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2508,30 +2479,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2554,16 +2525,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2613,7 +2584,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2622,16 +2593,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2642,10 +2613,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2668,16 +2639,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2727,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2736,16 +2707,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2756,10 +2727,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2782,13 +2753,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2839,7 +2810,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2857,7 +2828,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2868,14 +2839,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2894,16 +2865,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2941,19 +2912,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2962,16 +2933,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2982,14 +2953,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3008,19 +2979,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3069,7 +3040,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3078,10 +3049,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3098,10 +3069,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3124,17 +3095,15 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3183,7 +3152,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3192,16 +3161,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3212,10 +3181,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3238,17 +3207,15 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3297,7 +3264,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3306,16 +3273,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3326,10 +3293,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3352,13 +3319,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3397,19 +3364,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3418,16 +3385,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3438,10 +3405,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3464,13 +3431,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3521,7 +3488,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3539,7 +3506,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3550,14 +3517,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3576,16 +3543,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3623,19 +3590,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3644,16 +3611,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3664,14 +3631,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3690,19 +3657,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3751,7 +3718,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3760,10 +3727,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3780,10 +3747,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3809,10 +3776,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3863,7 +3830,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3875,7 +3842,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3892,10 +3859,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3918,16 +3885,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3977,7 +3944,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3986,16 +3953,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4006,10 +3973,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4032,13 +3999,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4089,7 +4056,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4107,7 +4074,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4118,10 +4085,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4144,13 +4111,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4201,7 +4168,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4210,16 +4177,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4230,10 +4197,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4256,13 +4223,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4313,7 +4280,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4331,7 +4298,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4342,14 +4309,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4368,16 +4335,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4415,19 +4382,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4436,16 +4403,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4456,14 +4423,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4482,19 +4449,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4543,7 +4510,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4552,10 +4519,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4572,10 +4539,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4598,16 +4565,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4633,13 +4600,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4657,7 +4624,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4666,16 +4633,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4686,10 +4653,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4712,16 +4679,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4771,7 +4738,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4780,16 +4747,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4800,10 +4767,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4826,13 +4793,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4883,7 +4850,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4892,16 +4859,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4912,10 +4879,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4938,13 +4905,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4995,7 +4962,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5013,7 +4980,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5024,14 +4991,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5050,16 +5017,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5097,19 +5064,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5118,16 +5085,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5138,14 +5105,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5164,19 +5131,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5225,7 +5192,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5234,10 +5201,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5254,10 +5221,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5280,17 +5247,15 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5315,13 +5280,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5339,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5348,16 +5313,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5368,10 +5333,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5394,16 +5359,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5453,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5462,16 +5427,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5482,10 +5447,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5508,17 +5473,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5530,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5576,16 +5539,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5596,10 +5559,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5622,17 +5585,15 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5681,7 +5642,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5690,16 +5651,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5710,10 +5671,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5736,17 +5697,15 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5754,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5804,16 +5763,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5824,10 +5783,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5850,17 +5809,15 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5909,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5918,16 +5875,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5938,10 +5895,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5964,13 +5921,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6021,7 +5978,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6030,16 +5987,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6050,10 +6007,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6076,13 +6033,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6133,7 +6090,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6108,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6162,14 +6119,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6188,16 +6145,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6235,19 +6192,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6256,16 +6213,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6276,14 +6233,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6302,19 +6259,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6363,7 +6320,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6372,10 +6329,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6392,10 +6349,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6418,17 +6375,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6477,7 +6432,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6486,16 +6441,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6506,10 +6461,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6532,17 +6487,15 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6591,7 +6544,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6600,16 +6553,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6620,10 +6573,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6646,16 +6599,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6705,7 +6658,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6714,16 +6667,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6734,10 +6687,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6760,16 +6713,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6819,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6828,16 +6781,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6848,10 +6801,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6874,16 +6827,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6933,7 +6886,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6951,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6962,13 +6915,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6990,13 +6943,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7047,7 +7000,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7056,16 +7009,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7076,10 +7029,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7102,13 +7055,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7159,7 +7112,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7177,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7188,14 +7141,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7214,16 +7167,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7261,19 +7214,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7282,16 +7235,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7302,14 +7255,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7328,19 +7281,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7389,7 +7342,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7398,10 +7351,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7418,10 +7371,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7447,10 +7400,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7501,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7513,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7530,10 +7483,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7556,16 +7509,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7615,7 +7568,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7624,16 +7577,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7644,14 +7597,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7670,16 +7623,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7729,7 +7682,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7744,10 +7697,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7758,10 +7711,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7784,13 +7737,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7841,7 +7794,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7850,16 +7803,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7870,10 +7823,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7896,13 +7849,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7953,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7971,7 +7924,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7982,14 +7935,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8008,16 +7961,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8055,19 +8008,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8076,16 +8029,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8096,14 +8049,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8122,19 +8075,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8183,7 +8136,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8192,10 +8145,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8212,10 +8165,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8238,16 +8191,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8273,13 +8226,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8297,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8306,16 +8259,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8326,10 +8279,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8352,16 +8305,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8411,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8420,16 +8373,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8440,10 +8393,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8466,13 +8419,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8523,7 +8476,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8532,16 +8485,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8552,10 +8505,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8578,13 +8531,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8635,7 +8588,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8653,7 +8606,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8664,14 +8617,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8690,16 +8643,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8737,19 +8690,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8758,16 +8711,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8778,14 +8731,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8804,19 +8757,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8865,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8874,10 +8827,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8894,10 +8847,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8920,17 +8873,15 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8940,7 +8891,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8955,13 +8906,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8979,7 +8930,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8988,16 +8939,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9008,10 +8959,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9034,16 +8985,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9054,7 +9005,7 @@
         <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>77</v>
@@ -9093,7 +9044,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -9102,16 +9053,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9122,10 +9073,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9148,17 +9099,15 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9207,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9216,16 +9165,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9236,10 +9185,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9262,17 +9211,15 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9321,7 +9268,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9330,16 +9277,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9350,10 +9297,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9376,17 +9323,15 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9435,7 +9380,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9444,16 +9389,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9464,10 +9409,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9490,17 +9435,15 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9549,7 +9492,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9558,16 +9501,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9578,10 +9521,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9604,13 +9547,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9661,7 +9604,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9670,16 +9613,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9690,10 +9633,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9716,13 +9659,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9773,7 +9716,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9791,7 +9734,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9802,14 +9745,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9828,16 +9771,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9875,19 +9818,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9896,16 +9839,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9916,14 +9859,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9942,19 +9885,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O75" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10003,7 +9946,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10012,10 +9955,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10032,10 +9975,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10058,17 +10001,15 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10117,7 +10058,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10126,16 +10067,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10146,10 +10087,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10172,17 +10113,15 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10231,7 +10170,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10240,16 +10179,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10260,10 +10199,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10286,16 +10225,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10345,7 +10284,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10354,16 +10293,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10374,10 +10313,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10400,16 +10339,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10459,7 +10398,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10468,16 +10407,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10488,10 +10427,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10514,16 +10453,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10573,7 +10512,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10591,7 +10530,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10602,13 +10541,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10630,13 +10569,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10687,7 +10626,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10696,16 +10635,16 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -10716,10 +10655,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10742,13 +10681,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10799,7 +10738,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10817,7 +10756,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -10828,14 +10767,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10854,16 +10793,16 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10901,19 +10840,19 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -10922,16 +10861,16 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -10942,14 +10881,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10968,19 +10907,19 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O84" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11029,7 +10968,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11038,10 +10977,10 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11058,10 +10997,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11087,10 +11026,10 @@
         <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11141,7 +11080,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11153,7 +11092,7 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11170,10 +11109,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11196,16 +11135,16 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11255,7 +11194,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11264,16 +11203,16 @@
         <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11284,10 +11223,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11310,16 +11249,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11369,7 +11308,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11387,7 +11326,7 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11398,10 +11337,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11424,13 +11363,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11481,7 +11420,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11490,16 +11429,16 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -11510,10 +11449,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11536,13 +11475,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11593,7 +11532,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11611,7 +11550,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -11622,14 +11561,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11648,16 +11587,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11695,19 +11634,19 @@
         <v>77</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -11716,16 +11655,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -11736,14 +11675,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11762,19 +11701,19 @@
         <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O91" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11823,7 +11762,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -11832,10 +11771,10 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
@@ -11852,10 +11791,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11878,16 +11817,16 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11913,13 +11852,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11937,7 +11876,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11946,16 +11885,16 @@
         <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ92" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -11966,10 +11905,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11992,16 +11931,16 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12051,7 +11990,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12060,16 +11999,16 @@
         <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ93" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12080,10 +12019,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12106,13 +12045,13 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12163,7 +12102,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12172,16 +12111,16 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -12192,10 +12131,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12218,13 +12157,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12275,7 +12214,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12293,7 +12232,7 @@
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12304,14 +12243,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12330,16 +12269,16 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12377,19 +12316,19 @@
         <v>77</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12398,16 +12337,16 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -12418,14 +12357,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12444,19 +12383,19 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O97" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -12505,7 +12444,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12514,10 +12453,10 @@
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>77</v>
@@ -12534,10 +12473,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12560,17 +12499,15 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12580,7 +12517,7 @@
         <v>77</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>77</v>
@@ -12595,13 +12532,13 @@
         <v>77</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -12619,7 +12556,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>87</v>
@@ -12628,16 +12565,16 @@
         <v>87</v>
       </c>
       <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ98" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -12648,10 +12585,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12674,16 +12611,16 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12694,7 +12631,7 @@
         <v>77</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>77</v>
@@ -12733,7 +12670,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>87</v>
@@ -12742,16 +12679,16 @@
         <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -12762,10 +12699,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12788,17 +12725,15 @@
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12847,7 +12782,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -12856,16 +12791,16 @@
         <v>87</v>
       </c>
       <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ100" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -12876,10 +12811,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12902,17 +12837,15 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12961,7 +12894,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -12970,16 +12903,16 @@
         <v>87</v>
       </c>
       <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ101" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -12990,10 +12923,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13016,17 +12949,15 @@
         <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13075,7 +13006,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13084,16 +13015,16 @@
         <v>87</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -13104,10 +13035,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13130,17 +13061,15 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13189,7 +13118,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13198,16 +13127,16 @@
         <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ103" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>77</v>
@@ -13218,10 +13147,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13244,13 +13173,13 @@
         <v>88</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13301,7 +13230,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13310,16 +13239,16 @@
         <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -13330,10 +13259,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13356,13 +13285,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13413,7 +13342,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -13431,7 +13360,7 @@
         <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>77</v>
@@ -13442,14 +13371,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13468,16 +13397,16 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13515,19 +13444,19 @@
         <v>77</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -13536,16 +13465,16 @@
         <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>77</v>
@@ -13556,14 +13485,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13582,19 +13511,19 @@
         <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L107" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O107" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -13643,7 +13572,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13652,10 +13581,10 @@
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>77</v>
@@ -13672,10 +13601,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13698,17 +13627,15 @@
         <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13757,7 +13684,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>87</v>
@@ -13766,16 +13693,16 @@
         <v>87</v>
       </c>
       <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ108" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>77</v>
@@ -13786,10 +13713,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13812,17 +13739,15 @@
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -13871,7 +13796,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -13880,16 +13805,16 @@
         <v>87</v>
       </c>
       <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ109" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>77</v>
@@ -13900,10 +13825,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13926,16 +13851,16 @@
         <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13985,7 +13910,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13994,16 +13919,16 @@
         <v>87</v>
       </c>
       <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ110" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>77</v>
@@ -14014,10 +13939,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14040,16 +13965,16 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14099,7 +14024,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14108,16 +14033,16 @@
         <v>87</v>
       </c>
       <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ111" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>77</v>
@@ -14128,10 +14053,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14154,16 +14079,16 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14213,7 +14138,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14231,7 +14156,7 @@
         <v>77</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>77</v>
@@ -14242,10 +14167,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14268,19 +14193,19 @@
         <v>88</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14329,7 +14254,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -14338,16 +14263,16 @@
         <v>87</v>
       </c>
       <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ113" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="361">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
+bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,6 +316,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -339,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -381,6 +388,12 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -461,8 +474,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-1
-</t>
+    <t>ele-1
+bdl-1</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -499,9 +512,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -522,6 +532,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -558,6 +578,9 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -565,6 +588,9 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -583,11 +609,8 @@
     <t>Slice based on the request.url pattern</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -636,6 +659,9 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
+    <t>Entity. Role, or Act</t>
+  </si>
+  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -645,8 +671,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-2
-</t>
+    <t>ele-1
+bdl-2</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -702,8 +728,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-3
-</t>
+    <t>ele-1
+bdl-3</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -757,6 +783,9 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -784,8 +813,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-4
-</t>
+    <t>ele-1
+bdl-4</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1454,15 +1483,15 @@
     <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.65625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1909,16 +1938,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1929,10 +1958,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1955,16 +1984,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2014,7 +2043,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2023,16 +2052,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -2043,10 +2072,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2069,16 +2098,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2104,13 +2133,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2128,7 +2157,7 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2137,16 +2166,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2157,10 +2186,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2183,16 +2212,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2242,7 +2271,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2251,30 +2280,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2297,16 +2326,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2317,47 +2346,47 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
       </c>
@@ -2365,30 +2394,30 @@
         <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2411,16 +2440,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2470,7 +2499,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2479,30 +2508,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2525,16 +2554,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2584,7 +2613,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2593,16 +2622,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2613,10 +2642,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2639,16 +2668,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2698,7 +2727,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2707,16 +2736,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2727,10 +2756,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2753,13 +2782,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2810,7 +2839,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2828,7 +2857,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2839,14 +2868,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2865,16 +2894,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2912,19 +2941,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2933,16 +2962,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2953,14 +2982,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2979,19 +3008,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3040,7 +3069,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3049,10 +3078,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3069,10 +3098,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3095,15 +3124,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3152,7 +3183,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3161,16 +3192,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3181,10 +3212,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3207,15 +3238,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3264,7 +3297,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3273,16 +3306,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3293,10 +3326,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3319,13 +3352,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3364,19 +3397,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3385,16 +3418,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3405,10 +3438,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3431,13 +3464,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3488,7 +3521,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3506,7 +3539,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3517,14 +3550,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3543,16 +3576,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3590,19 +3623,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3611,16 +3644,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3631,14 +3664,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3657,19 +3690,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3718,7 +3751,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3727,10 +3760,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3747,10 +3780,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3776,10 +3809,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3830,7 +3863,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3842,7 +3875,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3859,10 +3892,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3885,16 +3918,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3944,7 +3977,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3953,16 +3986,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3973,10 +4006,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3999,13 +4032,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4056,7 +4089,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4074,7 +4107,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4085,10 +4118,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4111,13 +4144,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4168,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4177,16 +4210,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4197,10 +4230,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4223,13 +4256,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4280,7 +4313,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4298,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4309,14 +4342,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4335,16 +4368,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4382,19 +4415,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4403,16 +4436,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4423,14 +4456,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4449,19 +4482,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4510,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4519,10 +4552,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4539,10 +4572,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4565,16 +4598,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4600,13 +4633,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4624,7 +4657,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4633,16 +4666,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4653,10 +4686,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4679,16 +4712,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4738,7 +4771,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4747,16 +4780,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4767,10 +4800,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4793,13 +4826,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4850,7 +4883,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4859,16 +4892,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4879,10 +4912,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4905,13 +4938,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4962,7 +4995,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4980,7 +5013,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4991,14 +5024,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5017,16 +5050,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5064,19 +5097,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5085,16 +5118,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5105,14 +5138,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5131,19 +5164,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5192,7 +5225,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5201,10 +5234,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5221,10 +5254,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5247,15 +5280,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5280,13 +5315,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5304,7 +5339,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5313,16 +5348,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5333,10 +5368,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5359,16 +5394,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5418,7 +5453,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5427,16 +5462,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5447,10 +5482,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5473,15 +5508,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5530,7 +5567,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5539,16 +5576,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5559,10 +5596,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5585,15 +5622,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5642,7 +5681,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5651,16 +5690,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5671,10 +5710,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5697,15 +5736,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5754,7 +5795,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5763,16 +5804,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5783,10 +5824,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5809,15 +5850,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5866,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5875,16 +5918,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5895,10 +5938,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5921,13 +5964,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5978,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5987,16 +6030,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6007,10 +6050,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6033,13 +6076,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6090,7 +6133,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6108,7 +6151,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6119,14 +6162,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6145,16 +6188,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6192,19 +6235,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6213,16 +6256,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6233,14 +6276,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6259,19 +6302,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6320,7 +6363,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6329,10 +6372,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6349,10 +6392,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6375,15 +6418,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6432,7 +6477,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6441,16 +6486,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6461,10 +6506,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6487,15 +6532,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6544,7 +6591,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6553,16 +6600,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6573,10 +6620,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6599,16 +6646,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6658,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6667,16 +6714,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6687,10 +6734,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6713,16 +6760,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6772,7 +6819,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6781,16 +6828,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6801,10 +6848,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6827,16 +6874,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6886,7 +6933,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6904,7 +6951,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6915,13 +6962,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6943,13 +6990,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7000,7 +7047,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7009,16 +7056,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7029,10 +7076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7055,13 +7102,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7112,7 +7159,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7130,7 +7177,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7141,14 +7188,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7167,16 +7214,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7214,19 +7261,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7235,16 +7282,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7255,14 +7302,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7281,19 +7328,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7342,7 +7389,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7351,10 +7398,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7371,10 +7418,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7400,10 +7447,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7454,7 +7501,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7466,7 +7513,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7483,10 +7530,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7509,16 +7556,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7568,7 +7615,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7577,16 +7624,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7597,14 +7644,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7623,16 +7670,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7682,7 +7729,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7697,10 +7744,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7711,10 +7758,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7737,13 +7784,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7794,7 +7841,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7803,16 +7850,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7823,10 +7870,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7849,13 +7896,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7906,7 +7953,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7924,7 +7971,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7935,14 +7982,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7961,16 +8008,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8008,19 +8055,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8029,16 +8076,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8049,14 +8096,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8075,19 +8122,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8183,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8145,10 +8192,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8165,10 +8212,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8191,16 +8238,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8226,13 +8273,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8250,7 +8297,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8259,16 +8306,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8279,10 +8326,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8305,16 +8352,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8364,7 +8411,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8373,16 +8420,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8393,10 +8440,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8419,13 +8466,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8476,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8485,16 +8532,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8505,10 +8552,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8531,13 +8578,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8588,7 +8635,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8606,7 +8653,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8617,14 +8664,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8643,16 +8690,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8690,19 +8737,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8711,16 +8758,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8731,14 +8778,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8757,19 +8804,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8818,7 +8865,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8827,10 +8874,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8847,10 +8894,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8873,15 +8920,17 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8891,7 +8940,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8906,13 +8955,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8930,7 +8979,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8939,16 +8988,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -8959,10 +9008,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8985,16 +9034,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9005,7 +9054,7 @@
         <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>77</v>
@@ -9044,7 +9093,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -9053,16 +9102,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9073,10 +9122,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9099,15 +9148,17 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9156,7 +9207,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9165,16 +9216,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9185,10 +9236,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9211,15 +9262,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9268,7 +9321,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9277,16 +9330,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9297,10 +9350,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9323,15 +9376,17 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9380,7 +9435,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9389,16 +9444,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9409,10 +9464,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9435,15 +9490,17 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9492,7 +9549,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9501,16 +9558,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9521,10 +9578,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9547,13 +9604,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9604,7 +9661,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9613,16 +9670,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9633,10 +9690,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9659,13 +9716,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9716,7 +9773,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9734,7 +9791,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9745,14 +9802,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9771,16 +9828,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9818,19 +9875,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9839,16 +9896,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9859,14 +9916,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9885,19 +9942,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9946,7 +10003,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9955,10 +10012,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -9975,10 +10032,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10001,15 +10058,17 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10058,7 +10117,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10067,16 +10126,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10087,10 +10146,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10113,15 +10172,17 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10170,7 +10231,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10179,16 +10240,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10199,10 +10260,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10225,16 +10286,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10284,7 +10345,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10293,16 +10354,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10313,10 +10374,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10339,16 +10400,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10398,7 +10459,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10407,16 +10468,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10427,10 +10488,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10453,16 +10514,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10512,7 +10573,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10530,7 +10591,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10541,13 +10602,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10569,13 +10630,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10626,7 +10687,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10635,16 +10696,16 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -10655,10 +10716,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10681,13 +10742,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10738,7 +10799,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10756,7 +10817,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -10767,14 +10828,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10793,16 +10854,16 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10840,19 +10901,19 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -10861,16 +10922,16 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -10881,14 +10942,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10907,19 +10968,19 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -10968,7 +11029,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10977,10 +11038,10 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -10997,10 +11058,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11026,10 +11087,10 @@
         <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11080,7 +11141,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11092,7 +11153,7 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11109,10 +11170,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11135,16 +11196,16 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11194,7 +11255,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11203,16 +11264,16 @@
         <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11223,10 +11284,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11249,16 +11310,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11308,7 +11369,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11326,7 +11387,7 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11337,10 +11398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11363,13 +11424,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11420,7 +11481,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11429,16 +11490,16 @@
         <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -11449,10 +11510,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11475,13 +11536,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11532,7 +11593,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11550,7 +11611,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -11561,14 +11622,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11587,16 +11648,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11634,19 +11695,19 @@
         <v>77</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -11655,16 +11716,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -11675,14 +11736,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11701,19 +11762,19 @@
         <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11762,7 +11823,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -11771,10 +11832,10 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
@@ -11791,10 +11852,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11817,16 +11878,16 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11852,13 +11913,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11876,7 +11937,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11885,16 +11946,16 @@
         <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -11905,10 +11966,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11931,16 +11992,16 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11990,7 +12051,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -11999,16 +12060,16 @@
         <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12019,10 +12080,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12045,13 +12106,13 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12102,7 +12163,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12111,16 +12172,16 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -12131,10 +12192,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12157,13 +12218,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12214,7 +12275,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12232,7 +12293,7 @@
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12243,14 +12304,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12269,16 +12330,16 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12316,19 +12377,19 @@
         <v>77</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12337,16 +12398,16 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -12357,14 +12418,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12383,19 +12444,19 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -12444,7 +12505,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12453,10 +12514,10 @@
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>77</v>
@@ -12473,10 +12534,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12499,15 +12560,17 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12517,7 +12580,7 @@
         <v>77</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>77</v>
@@ -12532,13 +12595,13 @@
         <v>77</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -12556,7 +12619,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>87</v>
@@ -12565,16 +12628,16 @@
         <v>87</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -12585,10 +12648,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12611,16 +12674,16 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12631,7 +12694,7 @@
         <v>77</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>77</v>
@@ -12670,7 +12733,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>87</v>
@@ -12679,16 +12742,16 @@
         <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -12699,10 +12762,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12725,15 +12788,17 @@
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12782,7 +12847,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -12791,16 +12856,16 @@
         <v>87</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -12811,10 +12876,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12837,15 +12902,17 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12894,7 +12961,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -12903,16 +12970,16 @@
         <v>87</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -12923,10 +12990,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12949,15 +13016,17 @@
         <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13006,7 +13075,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13015,16 +13084,16 @@
         <v>87</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -13035,10 +13104,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13061,15 +13130,17 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13118,7 +13189,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13127,16 +13198,16 @@
         <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>77</v>
@@ -13147,10 +13218,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13173,13 +13244,13 @@
         <v>88</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13230,7 +13301,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13239,16 +13310,16 @@
         <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -13259,10 +13330,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13285,13 +13356,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13342,7 +13413,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -13360,7 +13431,7 @@
         <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>77</v>
@@ -13371,14 +13442,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13397,16 +13468,16 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13444,19 +13515,19 @@
         <v>77</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -13465,16 +13536,16 @@
         <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>77</v>
@@ -13485,14 +13556,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13511,19 +13582,19 @@
         <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -13572,7 +13643,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13581,10 +13652,10 @@
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>77</v>
@@ -13601,10 +13672,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13627,15 +13698,17 @@
         <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13684,7 +13757,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>87</v>
@@ -13693,16 +13766,16 @@
         <v>87</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>77</v>
@@ -13713,10 +13786,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13739,15 +13812,17 @@
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -13796,7 +13871,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -13805,16 +13880,16 @@
         <v>87</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>77</v>
@@ -13825,10 +13900,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13851,16 +13926,16 @@
         <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13910,7 +13985,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13919,16 +13994,16 @@
         <v>87</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>77</v>
@@ -13939,10 +14014,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13965,16 +14040,16 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14024,7 +14099,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14033,16 +14108,16 @@
         <v>87</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>77</v>
@@ -14053,10 +14128,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14079,16 +14154,16 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14138,7 +14213,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14156,7 +14231,7 @@
         <v>77</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>77</v>
@@ -14167,10 +14242,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14193,19 +14268,19 @@
         <v>88</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14254,7 +14329,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -14263,16 +14338,16 @@
         <v>87</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
+++ b/main/ig/StructureDefinition-mesures-bundle-flux-alimentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
